--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="389">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean2 (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std2 (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
@@ -1473,7 +1479,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,10 +1499,10 @@
         <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,16 +2448,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,13 +3066,13 @@
         <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,79 +3710,79 @@
         <v>214</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,13 +3790,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3802,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3817,10 +3823,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -3831,13 +3837,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3849,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3864,10 +3870,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -3878,13 +3884,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3896,10 +3902,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3911,10 +3917,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3925,7 +3931,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -3952,10 +3958,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -3966,13 +3972,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3987,13 +3993,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -4002,10 +4008,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -4016,10 +4022,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -4034,10 +4040,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -4048,13 +4054,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4066,13 +4072,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -4082,16 +4088,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4109,16 +4115,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4129,10 +4135,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -4142,13 +4148,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4156,23 +4162,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -4182,13 +4188,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4197,13 +4203,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -4213,16 +4219,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -4235,37 +4241,37 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -4275,19 +4281,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4303,31 +4309,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -4340,19 +4346,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4368,48 +4374,48 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4422,10 +4428,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,16 +4439,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4452,25 +4458,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,16 +4484,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4497,25 +4503,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,10 +4529,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4536,13 +4542,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,29 +4556,29 @@
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,35 +4586,35 @@
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,35 +4622,35 @@
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,35 +4658,35 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4694,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4703,22 +4709,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,34 +4732,34 @@
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +4767,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4773,16 +4779,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,28 +4796,28 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,10 +4825,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4831,22 +4837,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4860,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4866,16 +4872,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,13 +4889,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -4901,22 +4907,22 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,34 +4930,34 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +4965,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -4971,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +4997,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -5003,16 +5009,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,16 +5026,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>4</v>
@@ -5038,28 +5044,28 @@
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,10 +5073,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -5079,16 +5085,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,28 +5102,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5131,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -5136,7 +5142,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -5147,7 +5153,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -5158,7 +5164,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5187,7 +5193,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -5199,7 +5205,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5228,7 +5234,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5240,7 +5246,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5270,7 +5276,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v1_manual2_EX2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="301">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -675,13 +684,13 @@
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
+    <t xml:space="preserve">lower_bound</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_meas2</t>
+    <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_UB2</t>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -1061,32 +1070,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="L:BA B12"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,7 +1104,7 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1131,55 +1139,71 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1197,38 +1221,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="L:BA A38"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1242,7 +1263,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1256,7 +1277,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1270,7 +1291,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1284,7 +1305,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1298,7 +1319,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1312,7 +1333,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1326,7 +1347,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1340,7 +1361,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1354,7 +1375,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1368,7 +1389,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1382,7 +1403,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1396,7 +1417,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1410,7 +1431,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1424,7 +1445,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1438,7 +1459,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1452,7 +1473,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1466,7 +1487,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1480,7 +1501,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1494,7 +1515,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1508,7 +1529,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1522,7 +1543,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1536,7 +1557,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1550,7 +1571,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1564,7 +1585,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1578,7 +1599,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1592,7 +1613,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1606,7 +1627,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1620,7 +1641,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1634,7 +1655,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1648,7 +1669,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1662,7 +1683,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1676,7 +1697,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1711,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1704,7 +1725,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1718,7 +1739,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1732,7 +1753,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1746,7 +1767,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1760,7 +1781,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1774,7 +1795,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1788,7 +1809,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1812,38 +1833,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:BA A1"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1857,7 +1875,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1871,7 +1889,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1885,7 +1903,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1899,7 +1917,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1913,7 +1931,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1927,7 +1945,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1941,7 +1959,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1955,7 +1973,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1969,7 +1987,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1983,7 +2001,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1997,7 +2015,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2011,7 +2029,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2025,7 +2043,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2039,7 +2057,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2053,7 +2071,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2067,7 +2085,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2081,7 +2099,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2095,7 +2113,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2109,7 +2127,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2123,7 +2141,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2137,7 +2155,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2151,7 +2169,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2165,7 +2183,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2179,7 +2197,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2193,7 +2211,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2207,7 +2225,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2221,7 +2239,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2235,7 +2253,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2249,7 +2267,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2263,7 +2281,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2277,7 +2295,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2291,7 +2309,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2305,7 +2323,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2319,7 +2337,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2333,7 +2351,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2347,7 +2365,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2361,7 +2379,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2375,7 +2393,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2389,7 +2407,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2403,7 +2421,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2417,7 +2435,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2431,7 +2449,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2455,55 +2473,54 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA1" activeCellId="0" sqref="L:BA"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2523,16 +2540,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2562,16 +2579,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2601,16 +2618,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2640,16 +2657,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2677,22 +2694,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -2715,16 +2732,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2743,16 +2760,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2771,19 +2788,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2798,19 +2815,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2827,16 +2844,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2855,16 +2872,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2880,23 +2897,23 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2920,29 +2937,29 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -2965,29 +2982,29 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -3010,16 +3027,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5"/>
       <c r="K16" s="5" t="n">
@@ -3030,22 +3047,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="5" t="n">
@@ -3061,22 +3078,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5"/>
       <c r="K18" s="5" t="n">
@@ -3092,16 +3109,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5"/>
       <c r="K19" s="5" t="n">
@@ -3113,16 +3130,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G20" s="5"/>
       <c r="K20" s="5" t="n">
@@ -3135,16 +3152,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G21" s="5"/>
       <c r="K21" s="5" t="n">
@@ -3159,16 +3176,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G22" s="5"/>
       <c r="K22" s="5" t="n">
@@ -3183,16 +3200,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G23" s="5"/>
       <c r="K23" s="5" t="n">
@@ -3207,19 +3224,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>2</v>
@@ -3233,16 +3250,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>3</v>
@@ -3256,16 +3273,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>2</v>
@@ -3277,16 +3294,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>4</v>
@@ -3298,16 +3315,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>4</v>
@@ -3321,16 +3338,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>2</v>
@@ -3342,19 +3359,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -3371,16 +3388,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>1</v>
@@ -3394,16 +3411,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>1</v>
@@ -3416,16 +3433,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>2</v>
@@ -3437,19 +3454,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -3468,16 +3485,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>1</v>
@@ -3489,16 +3506,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>1</v>
@@ -3510,10 +3527,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>1</v>
@@ -3521,10 +3538,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>1</v>
@@ -3532,10 +3549,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>1</v>
@@ -3543,16 +3560,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3582,16 +3599,16 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3621,16 +3638,16 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3671,177 +3688,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="L:BA A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="3" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BA1" s="0"/>
       <c r="BB1" s="0"/>
@@ -4818,7 +4835,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -5948,7 +5965,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -7078,7 +7095,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -8208,7 +8225,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9338,7 +9355,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -10468,7 +10485,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11598,7 +11615,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -12728,7 +12745,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13858,7 +13875,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14988,7 +15005,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -16118,7 +16135,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -17248,7 +17265,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -18378,7 +18395,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -19508,7 +19525,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -20638,7 +20655,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -21768,7 +21785,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -22898,7 +22915,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -24028,7 +24045,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -25158,7 +25175,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -26288,7 +26305,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -27418,7 +27435,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -28548,7 +28565,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -29678,7 +29695,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -30808,7 +30825,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -31938,7 +31955,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -33068,7 +33085,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -34198,7 +34215,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -35328,7 +35345,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -36458,7 +36475,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -37588,7 +37605,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -38718,7 +38735,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -39848,7 +39865,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -40978,7 +40995,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -42108,7 +42125,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -43238,7 +43255,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -44368,7 +44385,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -45498,7 +45515,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -46628,7 +46645,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -47758,7 +47775,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -48888,7 +48905,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -50018,7 +50035,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -51148,7 +51165,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -52278,7 +52295,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -53408,7 +53425,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -54538,7 +54555,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -55668,7 +55685,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -56798,7 +56815,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -57928,7 +57945,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -59058,7 +59075,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -60198,40 +60215,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L:BA D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
@@ -60239,10 +60255,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
@@ -60250,10 +60266,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
@@ -60261,10 +60277,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1</v>
@@ -60272,10 +60288,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>1</v>
@@ -60283,10 +60299,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0</v>
@@ -60294,10 +60310,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>1</v>
@@ -60305,10 +60321,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1</v>
@@ -60316,10 +60332,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -60327,10 +60343,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1</v>
@@ -60338,10 +60354,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>1</v>
@@ -60349,10 +60365,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>1</v>
@@ -60360,10 +60376,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>1</v>
@@ -60371,10 +60387,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>1</v>
@@ -60382,10 +60398,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>1</v>
@@ -60393,10 +60409,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>1</v>
@@ -60404,10 +60420,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>1</v>
@@ -60415,10 +60431,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
@@ -60426,10 +60442,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
@@ -60437,10 +60453,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>1</v>
@@ -60448,10 +60464,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
@@ -60459,10 +60475,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>1</v>
@@ -60470,10 +60486,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>1</v>
@@ -60481,10 +60497,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>1</v>
@@ -60492,10 +60508,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>1</v>
@@ -60503,10 +60519,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>1</v>
@@ -60514,10 +60530,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>1</v>
@@ -60525,10 +60541,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>1</v>
@@ -60536,10 +60552,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>1</v>
@@ -60547,10 +60563,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>1</v>
@@ -60558,10 +60574,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>1</v>
@@ -60569,10 +60585,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>1</v>
@@ -60580,10 +60596,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>1</v>
@@ -60591,10 +60607,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>1</v>
@@ -60602,10 +60618,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>1</v>
@@ -60613,10 +60629,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>1</v>
@@ -60624,10 +60640,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>1</v>
@@ -60635,10 +60651,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>1</v>
@@ -60646,10 +60662,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>1</v>
@@ -60657,10 +60673,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>0</v>
@@ -60668,10 +60684,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>0</v>
@@ -60679,10 +60695,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>0</v>
@@ -60690,10 +60706,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>0</v>
@@ -60711,43 +60727,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L:BA D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
@@ -60755,10 +60770,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0</v>
@@ -60766,10 +60781,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0</v>
@@ -60777,10 +60792,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0</v>
@@ -60788,10 +60803,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0</v>
@@ -60799,10 +60814,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0</v>
@@ -60810,10 +60825,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>0</v>
@@ -60821,10 +60836,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>0</v>
@@ -60832,10 +60847,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
@@ -60843,10 +60858,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>0</v>
@@ -60854,10 +60869,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>0</v>
@@ -60865,52 +60880,52 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>0</v>
@@ -60919,10 +60934,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>0</v>
@@ -60931,10 +60946,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>0</v>
@@ -60943,10 +60958,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
@@ -60955,10 +60970,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
@@ -60967,10 +60982,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>0</v>
@@ -60979,10 +60994,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
@@ -60991,10 +61006,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>0</v>
@@ -61003,10 +61018,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>0</v>
@@ -61015,10 +61030,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>0</v>
@@ -61027,10 +61042,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
@@ -61039,10 +61054,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>0</v>
@@ -61051,10 +61066,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>0</v>
@@ -61063,10 +61078,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>0</v>
@@ -61075,10 +61090,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>0</v>
@@ -61087,10 +61102,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>0</v>
@@ -61099,10 +61114,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>0</v>
@@ -61111,10 +61126,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>0</v>
@@ -61123,10 +61138,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>0</v>
@@ -61135,10 +61150,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>0</v>
@@ -61147,10 +61162,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>0</v>
@@ -61159,10 +61174,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>0</v>
@@ -61171,10 +61186,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>0</v>
@@ -61183,10 +61198,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>0</v>
@@ -61195,10 +61210,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>0</v>
@@ -61207,10 +61222,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>0</v>
@@ -61219,10 +61234,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>0</v>
@@ -61241,239 +61256,236 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:BA A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61488,239 +61500,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:BA A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61735,35 +61744,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="L:BA A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -61774,7 +61780,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -61785,7 +61791,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -61796,7 +61802,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -61807,7 +61813,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -61818,7 +61824,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -61829,7 +61835,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -61840,7 +61846,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -61851,7 +61857,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -61862,7 +61868,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -61873,7 +61879,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -61884,7 +61890,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -61895,7 +61901,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -61906,7 +61912,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -61917,7 +61923,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -61928,7 +61934,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -61939,7 +61945,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -61950,7 +61956,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -61961,7 +61967,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -61972,7 +61978,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -61983,7 +61989,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -61994,7 +62000,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -62005,7 +62011,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -62016,7 +62022,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -62027,7 +62033,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -62038,7 +62044,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -62049,7 +62055,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -62060,7 +62066,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -62071,7 +62077,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -62082,7 +62088,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -62093,7 +62099,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -62104,7 +62110,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -62115,7 +62121,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -62126,7 +62132,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -62137,7 +62143,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -62148,7 +62154,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -62159,7 +62165,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -62170,7 +62176,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -62181,7 +62187,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -62192,7 +62198,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -62203,7 +62209,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -62224,35 +62230,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L:BA A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -62263,7 +62266,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -62274,7 +62277,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -62285,7 +62288,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -62296,7 +62299,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -62307,7 +62310,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -62318,7 +62321,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -62329,7 +62332,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -62340,7 +62343,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -62351,7 +62354,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -62362,7 +62365,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -62373,7 +62376,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -62384,7 +62387,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -62395,7 +62398,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -62406,7 +62409,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -62417,7 +62420,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -62428,7 +62431,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -62439,7 +62442,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -62450,7 +62453,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -62461,7 +62464,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -62472,7 +62475,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -62483,7 +62486,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -62494,7 +62497,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -62505,7 +62508,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -62516,7 +62519,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -62527,7 +62530,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -62538,7 +62541,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -62549,7 +62552,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -62560,7 +62563,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -62571,7 +62574,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -62582,7 +62585,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -62593,7 +62596,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -62604,7 +62607,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -62615,7 +62618,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -62626,7 +62629,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -62637,7 +62640,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -62648,7 +62651,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -62659,7 +62662,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -62670,7 +62673,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -62681,7 +62684,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -62692,7 +62695,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -62703,7 +62706,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -62714,7 +62717,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -62735,37 +62738,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L:BA D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="3" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="2" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>960</v>
@@ -62776,7 +62779,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="n">
         <f aca="false">0.63*10^3</f>
@@ -62788,7 +62791,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="n">
         <f aca="false">0.63*10^3</f>
@@ -62801,7 +62804,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="n">
         <f aca="false">4.79*10^3</f>
@@ -62814,7 +62817,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="n">
         <f aca="false">0.72*10^3</f>
@@ -62827,7 +62830,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
@@ -62840,7 +62843,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
@@ -62853,7 +62856,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">0.72*10^3</f>
@@ -62866,7 +62869,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">1.17*10^3*0.5</f>
@@ -62879,7 +62882,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
@@ -62892,7 +62895,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
@@ -62905,7 +62908,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">1.17*10^3</f>
@@ -62918,7 +62921,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
@@ -62931,7 +62934,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
@@ -62944,7 +62947,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">0.44*10^3</f>
@@ -62957,7 +62960,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -62970,7 +62973,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -62983,7 +62986,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">0.01*10^3</f>
@@ -62996,7 +62999,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="n">
         <f aca="false">0.15*10^3</f>
@@ -63009,7 +63012,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B21" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -63022,7 +63025,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -63035,7 +63038,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5" t="n">
         <f aca="false">0.57*10^3</f>
@@ -63048,7 +63051,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63061,7 +63064,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63074,7 +63077,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="n">
         <f aca="false">0.46*10^3</f>
@@ -63087,7 +63090,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">5.11*10^3</f>
@@ -63100,7 +63103,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="n">
         <f aca="false">5.11*10^3</f>
@@ -63113,7 +63116,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B29" s="5" t="n">
         <f aca="false">4.36*10^3</f>
@@ -63126,7 +63129,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30" s="5" t="n">
         <f aca="false">4.36*10^3</f>
@@ -63139,7 +63142,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">3.89*10^3</f>
@@ -63152,7 +63155,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>700</v>
@@ -63163,7 +63166,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>700</v>
@@ -63174,7 +63177,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>2230</v>
@@ -63186,7 +63189,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>5337.5</v>
@@ -63198,7 +63201,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>312.5</v>
@@ -63210,7 +63213,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>10000</v>
@@ -63221,7 +63224,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>470</v>
@@ -63232,7 +63235,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>700</v>
@@ -63243,7 +63246,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>30</v>
@@ -63254,7 +63257,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>20</v>
@@ -63265,7 +63268,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>290</v>
@@ -63277,7 +63280,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>10</v>
@@ -63289,7 +63292,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>90</v>
@@ -63301,7 +63304,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>140</v>
@@ -63313,7 +63316,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>50</v>
@@ -63325,7 +63328,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>750</v>
